--- a/biology/Microbiologie/Chrysanthemodiscus_floriatus/Chrysanthemodiscus_floriatus.xlsx
+++ b/biology/Microbiologie/Chrysanthemodiscus_floriatus/Chrysanthemodiscus_floriatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthemodiscus, Chrysanthemodiscaceae, Chrysanthemodiscales
 Chrysanthemodiscus floriatus, unique représentant du genre Chrysanthemodiscus et de la famille des Chrysanthemodiscaceae, est une espèce de Diatomées de l'ordre des Stictodiscales, ou unique représentant de l'ordre des Chrysanthemodiscales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Chrysanthemodiscus est dérivé du grec χρυσός / chrysos, or, doré, ἄνθεμον / ánthemon, fleur, et de δισκος / diskos, disque.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une diatomée ayant des cellules cylindriques délicates (souvent quatre à six fois plus longues que larges) et des valves convexes, attachées bout à bout au moyen de coussinets de mucilage provenant du centre des valves.
-Parfois, cependant, les cellules sont attachées par des coussinets près des bords de la valve et apparaissent des « hétérovalves », c'est-à-dire des valves de formes différentes : l'une bombée et l'autre plus plate et entaillée. Les plastides sont nombreux et discoïdes[1].
+Parfois, cependant, les cellules sont attachées par des coussinets près des bords de la valve et apparaissent des « hétérovalves », c'est-à-dire des valves de formes différentes : l'une bombée et l'autre plus plate et entaillée. Les plastides sont nombreux et discoïdes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette diatomée marine est souvent abondante en épiphyte sur les algues macroscopiques le long des côtes tropicales mais rarement observée ; elle a, par exemple, été signalée à Oahu (Hawaï) par Round (1978), au large de la Floride par Gibson et Navarro (1981) et sur la côte d'Oman par S. Hiscock[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette diatomée marine est souvent abondante en épiphyte sur les algues macroscopiques le long des côtes tropicales mais rarement observée ; elle a, par exemple, été signalée à Oahu (Hawaï) par Round (1978), au large de la Floride par Gibson et Navarro (1981) et sur la côte d'Oman par S. Hiscock.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce et le genre ont été décrits en 1925 par le phycologue américan Albert Mann (d)[2] ; la famille en 1978 par le phycologue britannique Frank Eric Round (d)[3] et l'ordre en 1990 par le même auteur[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce et le genre ont été décrits en 1925 par le phycologue américan Albert Mann (d) ; la famille en 1978 par le phycologue britannique Frank Eric Round (d) et l'ordre en 1990 par le même auteur.
 </t>
         </is>
       </c>
